--- a/tspi/ciclo-1/task3/20106381.xlsx
+++ b/tspi/ciclo-1/task3/20106381.xlsx
@@ -29,7 +29,7 @@
     <t>Quality/Process Manager</t>
   </si>
   <si>
-    <t>Experimiento Ruby on Rails #1.</t>
+    <t>Instalar y configurar ruby on rails</t>
   </si>
   <si>
     <t>Crear el borrador #1 del diagrama de casos de uso.</t>
@@ -184,8 +184,8 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -207,21 +207,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="1">
@@ -269,24 +269,6 @@
         <f aca="false">(120+50)/60</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="ALS3" s="0"/>
-      <c r="ALT3" s="0"/>
-      <c r="ALU3" s="0"/>
-      <c r="ALV3" s="0"/>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="4" s="8">
       <c r="A4" s="6" t="n">
@@ -298,24 +280,6 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
-      <c r="ALS4" s="0"/>
-      <c r="ALT4" s="0"/>
-      <c r="ALU4" s="0"/>
-      <c r="ALV4" s="0"/>
-      <c r="ALW4" s="0"/>
-      <c r="ALX4" s="0"/>
-      <c r="ALY4" s="0"/>
-      <c r="ALZ4" s="0"/>
-      <c r="AMA4" s="0"/>
-      <c r="AMB4" s="0"/>
-      <c r="AMC4" s="0"/>
-      <c r="AMD4" s="0"/>
-      <c r="AME4" s="0"/>
-      <c r="AMF4" s="0"/>
-      <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="5" s="8">
       <c r="A5" s="6" t="n">
@@ -327,24 +291,6 @@
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
-      <c r="ALS5" s="0"/>
-      <c r="ALT5" s="0"/>
-      <c r="ALU5" s="0"/>
-      <c r="ALV5" s="0"/>
-      <c r="ALW5" s="0"/>
-      <c r="ALX5" s="0"/>
-      <c r="ALY5" s="0"/>
-      <c r="ALZ5" s="0"/>
-      <c r="AMA5" s="0"/>
-      <c r="AMB5" s="0"/>
-      <c r="AMC5" s="0"/>
-      <c r="AMD5" s="0"/>
-      <c r="AME5" s="0"/>
-      <c r="AMF5" s="0"/>
-      <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="6" s="8">
       <c r="A6" s="6" t="n">
@@ -361,24 +307,6 @@
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="ALS6" s="0"/>
-      <c r="ALT6" s="0"/>
-      <c r="ALU6" s="0"/>
-      <c r="ALV6" s="0"/>
-      <c r="ALW6" s="0"/>
-      <c r="ALX6" s="0"/>
-      <c r="ALY6" s="0"/>
-      <c r="ALZ6" s="0"/>
-      <c r="AMA6" s="0"/>
-      <c r="AMB6" s="0"/>
-      <c r="AMC6" s="0"/>
-      <c r="AMD6" s="0"/>
-      <c r="AME6" s="0"/>
-      <c r="AMF6" s="0"/>
-      <c r="AMG6" s="0"/>
-      <c r="AMH6" s="0"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7">
       <c r="A7" s="6" t="n">
